--- a/dATOS-2k EJEMPLO VELOCIDAD PROFU.xlsx
+++ b/dATOS-2k EJEMPLO VELOCIDAD PROFU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f147b550761b0635/Documents/GitHub/estadistica-inferencia/DOE-UCuenca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{BDAFC011-10FC-4A10-B882-FB8DA5726131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65B4B13B-5B2E-4657-974C-6A3F3840414F}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{BDAFC011-10FC-4A10-B882-FB8DA5726131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDC80C0D-AA6C-493C-A408-D6F10F6FDB7C}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12800" activeTab="1" xr2:uid="{60B62E80-7CA1-4E6A-94C4-7C509B0BA107}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,7 +88,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{92E0423F-757B-4519-A46F-F4C36DFDC8C8}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
